--- a/CASES/05_Challenge_Data/01_Data/CONDITION.xlsx
+++ b/CASES/05_Challenge_Data/01_Data/CONDITION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
   <si>
     <t xml:space="preserve">Module 
 Auxiliary Services</t>
@@ -77,13 +77,31 @@
     <t xml:space="preserve">CB</t>
   </si>
   <si>
+    <t xml:space="preserve">CB_R1</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOG_21</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">Brand 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model T</t>
   </si>
   <si>
     <t xml:space="preserve">N5S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_CI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_CI12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_CI9</t>
   </si>
   <si>
     <t xml:space="preserve">GEN</t>
@@ -443,12 +461,12 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -806,8 +824,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -862,21 +880,23 @@
       <c r="C2" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="n">
-        <v>1</v>
+      <c r="D2" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" s="17" t="n">
         <v>1992</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,21 +909,23 @@
       <c r="C3" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="n">
-        <v>4</v>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" s="17" t="n">
         <v>1992</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="16"/>
+      <c r="G3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I3" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,21 +938,23 @@
       <c r="C4" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="D4" s="15" t="n">
-        <v>5</v>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17" t="n">
         <v>1992</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="16"/>
+      <c r="G4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,21 +967,23 @@
       <c r="C5" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="n">
-        <v>74</v>
+      <c r="D5" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" s="17" t="n">
         <v>1992</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="16"/>
+      <c r="G5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,21 +996,23 @@
       <c r="C6" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="D6" s="15" t="n">
-        <v>75</v>
+      <c r="D6" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17" t="n">
         <v>1992</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="16"/>
+      <c r="G6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1039,7 +1067,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1089,28 +1117,28 @@
         <v>10</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>1992</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="16" t="n">
-        <v>1992</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>13</v>
+      <c r="I2" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,28 +1146,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>17</v>
+      <c r="D3" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" s="17" t="n">
         <v>1992</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>13</v>
+      <c r="G3" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,28 +1175,28 @@
         <v>10</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>18</v>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17" t="n">
         <v>1992</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>13</v>
+      <c r="G4" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1200,7 +1228,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1250,29 +1278,35 @@
         <v>10</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2" s="15" t="n">
         <v>16</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" s="17" t="n">
         <v>1987</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>13</v>
+      <c r="G2" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="17"/>
     </row>
     <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1395,8 +1429,8 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1405,19 +1439,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="13.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>3</v>
@@ -1426,22 +1460,22 @@
         <v>5</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1455,7 +1489,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="27" t="n">
         <v>43474</v>
@@ -1487,7 +1521,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="27" t="n">
         <v>44197</v>
@@ -1532,21 +1566,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1583,10 +1617,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>3</v>
@@ -1595,16 +1629,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1618,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="27" t="n">
         <v>43106</v>
@@ -1644,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="27" t="n">
         <v>43107</v>
@@ -1670,7 +1704,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="27" t="n">
         <v>43108</v>
@@ -1696,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="27" t="n">
         <v>44197</v>
@@ -1722,7 +1756,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="27" t="n">
         <v>44197</v>
@@ -1748,7 +1782,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="27" t="n">
         <v>44197</v>
@@ -1799,10 +1833,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>3</v>
@@ -1811,16 +1845,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1834,7 +1868,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="27" t="n">
         <v>42005</v>
@@ -1860,7 +1894,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="27" t="n">
         <v>42006</v>
@@ -1886,7 +1920,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="27" t="n">
         <v>42007</v>
@@ -1912,7 +1946,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="27" t="n">
         <v>42008</v>
@@ -1938,7 +1972,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="27" t="n">
         <v>42009</v>
@@ -1964,7 +1998,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="27" t="n">
         <v>43466</v>
@@ -1990,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="27" t="n">
         <v>43467</v>
@@ -2016,7 +2050,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="27" t="n">
         <v>43468</v>
@@ -2042,7 +2076,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="27" t="n">
         <v>43469</v>
@@ -2068,7 +2102,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="27" t="n">
         <v>43470</v>
